--- a/docs/Major Systems/Major Systems.xlsx
+++ b/docs/Major Systems/Major Systems.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\dev\MemoApp\Repository\docs\Major Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0511DF9A-CAF5-404F-9F1B-85759D6B99F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70B907E-556D-4BA0-A6EF-9A13A53E4351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20952" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Sasso</t>
   </si>
@@ -84,18 +84,9 @@
     <t>Nemo</t>
   </si>
   <si>
-    <t>Nero</t>
-  </si>
-  <si>
     <t>Anello</t>
   </si>
   <si>
-    <t>Noci</t>
-  </si>
-  <si>
-    <t>Nico (Niccolò)</t>
-  </si>
-  <si>
     <t>Neve</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>Rana</t>
   </si>
   <si>
-    <t>Ramo</t>
-  </si>
-  <si>
     <t>Orrore (qualcosa che ci fa paura)</t>
   </si>
   <si>
@@ -156,9 +144,6 @@
     <t>Riga</t>
   </si>
   <si>
-    <t>Raf (Raffaele/Raffaella)</t>
-  </si>
-  <si>
     <t>Rabbia (visualizzare come una persona molto arrabbiata o l’emozione Rabbia di Inside Out)</t>
   </si>
   <si>
@@ -174,18 +159,9 @@
     <t>Lama (coltello)</t>
   </si>
   <si>
-    <t>Lira</t>
-  </si>
-  <si>
-    <t>Lollo/a (Lorenzo/a)</t>
-  </si>
-  <si>
     <t>Luce (Torcia/Lampada)</t>
   </si>
   <si>
-    <t>Luca</t>
-  </si>
-  <si>
     <t>Lava</t>
   </si>
   <si>
@@ -198,9 +174,6 @@
     <t>CD</t>
   </si>
   <si>
-    <t>Cina (una persona cinese)</t>
-  </si>
-  <si>
     <t>Gemma (Pietra preziosa)</t>
   </si>
   <si>
@@ -213,18 +186,12 @@
     <t>Ciccio (Bello)</t>
   </si>
   <si>
-    <t>Jack</t>
-  </si>
-  <si>
     <t>Ciuffo (di capelli)</t>
   </si>
   <si>
     <t>Giubba</t>
   </si>
   <si>
-    <t>Gas</t>
-  </si>
-  <si>
     <t>Gatto</t>
   </si>
   <si>
@@ -255,9 +222,6 @@
     <t>Vaso</t>
   </si>
   <si>
-    <t>Fede (Federico/a)</t>
-  </si>
-  <si>
     <t>Phon</t>
   </si>
   <si>
@@ -270,9 +234,6 @@
     <t>Vela (barca a vela)</t>
   </si>
   <si>
-    <t>Faccia</t>
-  </si>
-  <si>
     <t>Vacca (mucca)</t>
   </si>
   <si>
@@ -309,9 +270,6 @@
     <t>Puffo</t>
   </si>
   <si>
-    <t>Papà</t>
-  </si>
-  <si>
     <t>Sci</t>
   </si>
   <si>
@@ -703,6 +661,162 @@
   </si>
   <si>
     <t>Nodo</t>
+  </si>
+  <si>
+    <t>Nero (persona)</t>
+  </si>
+  <si>
+    <t>Noce</t>
+  </si>
+  <si>
+    <t>Gnocchi</t>
+  </si>
+  <si>
+    <t>Nave</t>
+  </si>
+  <si>
+    <t>Mano</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>Micio</t>
+  </si>
+  <si>
+    <t>Orso</t>
+  </si>
+  <si>
+    <t>Orma</t>
+  </si>
+  <si>
+    <t>Arco</t>
+  </si>
+  <si>
+    <t>Rovo</t>
+  </si>
+  <si>
+    <t>Rapa</t>
+  </si>
+  <si>
+    <t>Lessie (cane)</t>
+  </si>
+  <si>
+    <t>Letto</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t>Lama (animale)</t>
+  </si>
+  <si>
+    <t>Lara (Croft)</t>
+  </si>
+  <si>
+    <t>Lilli (il vagabondo)</t>
+  </si>
+  <si>
+    <t>Lago</t>
+  </si>
+  <si>
+    <t>Genio (di Aladino)</t>
+  </si>
+  <si>
+    <t>Cero</t>
+  </si>
+  <si>
+    <t>Cielo</t>
+  </si>
+  <si>
+    <t>Ciuccio</t>
+  </si>
+  <si>
+    <t>Giacca</t>
+  </si>
+  <si>
+    <t>Giove (pianeta)</t>
+  </si>
+  <si>
+    <t>Jeep (fuoristrada)</t>
+  </si>
+  <si>
+    <t>Cassa (registratore di cassa)</t>
+  </si>
+  <si>
+    <t>Città</t>
+  </si>
+  <si>
+    <t>Coda (capelli)</t>
+  </si>
+  <si>
+    <t>Cima (di una montagna)</t>
+  </si>
+  <si>
+    <t>Cono (dei lavori in corso)</t>
+  </si>
+  <si>
+    <t>Cuore</t>
+  </si>
+  <si>
+    <t>Collo</t>
+  </si>
+  <si>
+    <t>Goccia</t>
+  </si>
+  <si>
+    <t>Cocco</t>
+  </si>
+  <si>
+    <t>Coppa</t>
+  </si>
+  <si>
+    <t>Foto</t>
+  </si>
+  <si>
+    <t>Vino</t>
+  </si>
+  <si>
+    <t>Fiume</t>
+  </si>
+  <si>
+    <t>Ferro (da stiro)</t>
+  </si>
+  <si>
+    <t>Faccia (emoticon che sorride)</t>
+  </si>
+  <si>
+    <t>Foca</t>
+  </si>
+  <si>
+    <t>Fico</t>
+  </si>
+  <si>
+    <t>Pozzo</t>
+  </si>
+  <si>
+    <t>Podio</t>
+  </si>
+  <si>
+    <t>Penna</t>
+  </si>
+  <si>
+    <t>Puma</t>
+  </si>
+  <si>
+    <t>Burro</t>
+  </si>
+  <si>
+    <t>Pollo</t>
+  </si>
+  <si>
+    <t>Bici</t>
+  </si>
+  <si>
+    <t>Bocca</t>
+  </si>
+  <si>
+    <t>Pippo</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,7 +1148,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1042,7 +1156,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1050,7 +1164,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1058,7 +1172,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1066,7 +1180,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1074,7 +1188,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1082,7 +1196,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1090,7 +1204,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1098,7 +1212,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1106,7 +1220,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1114,93 +1228,93 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1208,45 +1322,45 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -1254,7 +1368,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -1262,26 +1376,26 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1289,7 +1403,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -1297,637 +1411,751 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B39" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B58" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="B59" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="B60" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="B62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B64" t="s">
+        <v>227</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B51" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B65" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="B66" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="B68" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="B69" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="B70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="B72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="B73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="B74" t="s">
+        <v>241</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B61" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="B75" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B62" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="B76" t="s">
+        <v>233</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B63" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="B77" t="s">
+        <v>234</v>
+      </c>
+      <c r="C77" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="B78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="B79" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="B80" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B67" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="B81" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="B82" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="B83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="B84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="B85" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B72" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="B86" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B73" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="B87" t="s">
+        <v>245</v>
+      </c>
+      <c r="C87" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="B88" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="B90" t="s">
+        <v>247</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B77" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B78" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="B92" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B79" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="B93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="B94" t="s">
+        <v>66</v>
+      </c>
+      <c r="C94" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B82" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="B96" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="B97" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B84" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D98" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B85" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B86" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B100" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B87" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="B101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B88" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="B102" t="s">
+        <v>73</v>
+      </c>
+      <c r="C102" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B89" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B90" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="B104" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B91" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="B105" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="B106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C106" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B93" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="B107" t="s">
+        <v>261</v>
+      </c>
+      <c r="C107" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B94" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="B108" t="s">
+        <v>262</v>
+      </c>
+      <c r="C108" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B95" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="B109" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B96" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B99" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B100" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B103" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B104" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B105" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B106" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B107" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B108" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B109" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="B110" t="s">
-        <v>94</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
